--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile2.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile2.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>KT, 청년 브랜드 'Y' 아티스트 모집</t>
+    <t>美는 틱톡, 日은 라인 견제… 국내도 "플랫폼법 재검토" 목소리 커진다</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>4시간전</t>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
   </si>
 </sst>
 </file>
